--- a/spraak/pizzaguy_data.xlsx
+++ b/spraak/pizzaguy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\vrolijkevrijdag012023\spraak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9715E05-A022-4E32-83E7-F9F190A8326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9C13D661-43F8-4209-8380-763310AD048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Ik kom een pizza bezorgen</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Hier is uw bestelling</t>
+  </si>
+  <si>
+    <t>Voor mij</t>
   </si>
 </sst>
 </file>
@@ -917,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,6 +1060,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
